--- a/平成31年度/シースリーカップ/c3cup 懇親会関係.xlsx
+++ b/平成31年度/シースリーカップ/c3cup 懇親会関係.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>懇親会費☑</t>
     <rPh sb="0" eb="2">
@@ -239,6 +239,27 @@
   </si>
   <si>
     <t>羽田　邦彦</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>保護者</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>飯浜　洋一</t>
+    <rPh sb="0" eb="2">
+      <t>イイハマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｃ３代表</t>
+    <rPh sb="2" eb="4">
+      <t>ダイヒョウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -316,7 +337,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -478,19 +499,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -510,7 +518,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -571,10 +579,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -884,7 +889,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E25"/>
+  <dimension ref="A2:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1011,70 +1016,64 @@
       <c r="A11" s="12">
         <v>7</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>20</v>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>17</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D11" s="13"/>
       <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="18"/>
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12">
         <v>9</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>22</v>
+      <c r="B13" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="18"/>
+        <v>36</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12">
         <v>10</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12">
         <v>11</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E15" s="18"/>
     </row>
@@ -1086,10 +1085,10 @@
         <v>22</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16" s="18"/>
     </row>
@@ -1100,11 +1099,11 @@
       <c r="B17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>27</v>
+      <c r="C17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="E17" s="18"/>
     </row>
@@ -1116,10 +1115,10 @@
         <v>22</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E18" s="18"/>
     </row>
@@ -1134,7 +1133,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E19" s="18"/>
     </row>
@@ -1149,7 +1148,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E20" s="18"/>
     </row>
@@ -1160,11 +1159,11 @@
       <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>34</v>
+      <c r="C21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="E21" s="18"/>
     </row>
@@ -1172,35 +1171,68 @@
       <c r="A22" s="12">
         <v>18</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="20"/>
+      <c r="B22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12">
         <v>19</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="20"/>
+      <c r="B23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12">
         <v>20</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="20"/>
-    </row>
-    <row r="25" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="21"/>
+      <c r="B24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="12">
+        <v>21</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
